--- a/CS_Terminplan.xlsx
+++ b/CS_Terminplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="0" windowWidth="27720" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Meetings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Kick off</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Hours planned per week</t>
-  </si>
-  <si>
-    <t>Script for DB</t>
   </si>
   <si>
     <t xml:space="preserve">Total hous used </t>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>DB scripting</t>
-  </si>
-  <si>
-    <t>ILO Scripting</t>
   </si>
   <si>
     <t>ILO Scriptiong
@@ -180,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +237,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -278,8 +266,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -302,13 +294,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -317,32 +315,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="32">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
@@ -356,6 +341,8 @@
     <cellStyle name="Besuchter Link" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
@@ -369,6 +356,8 @@
     <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
@@ -701,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -746,25 +735,25 @@
       <c r="H1" s="5">
         <v>41940</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="14">
         <v>41947</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="5">
         <v>41954</v>
       </c>
       <c r="K1" s="5">
         <v>41961</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="5">
         <v>41968</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="14">
         <v>41975</v>
       </c>
       <c r="N1" s="5">
         <v>41982</v>
       </c>
-      <c r="O1" s="18">
+      <c r="O1" s="14">
         <v>41989</v>
       </c>
       <c r="P1" s="5">
@@ -773,13 +762,13 @@
       <c r="Q1" s="5">
         <v>42003</v>
       </c>
-      <c r="R1" s="18">
+      <c r="R1" s="14">
         <v>42011</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="59" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -787,40 +776,40 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="19" t="s">
+      <c r="L2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -829,7 +818,7 @@
       <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -841,52 +830,50 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>32</v>
+      <c r="O3" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -901,35 +888,41 @@
       <c r="C4" s="9">
         <v>8.75</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>8</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>9</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="12">
         <v>8</v>
       </c>
       <c r="G4" s="9">
         <v>10</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="12">
         <v>16</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="17">
         <v>14</v>
       </c>
       <c r="J4" s="12">
         <v>18</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="21"/>
+      <c r="K4" s="9">
+        <v>8</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>5</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="21"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="4" t="s">
@@ -939,22 +932,22 @@
       <c r="C5" s="9">
         <v>10</v>
       </c>
-      <c r="D5" s="15">
-        <v>10</v>
-      </c>
-      <c r="E5" s="15">
-        <v>10</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="D5" s="12">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12">
         <v>10</v>
       </c>
       <c r="G5" s="9">
         <v>10</v>
       </c>
-      <c r="H5" s="15">
-        <v>10</v>
-      </c>
-      <c r="I5" s="21">
+      <c r="H5" s="12">
+        <v>10</v>
+      </c>
+      <c r="I5" s="17">
         <v>10</v>
       </c>
       <c r="J5" s="12">
@@ -963,16 +956,16 @@
       <c r="K5" s="9">
         <v>10</v>
       </c>
-      <c r="L5" s="21">
-        <v>10</v>
-      </c>
-      <c r="M5" s="9">
-        <v>10</v>
-      </c>
-      <c r="N5" s="15">
-        <v>10</v>
-      </c>
-      <c r="O5" s="21">
+      <c r="L5" s="12">
+        <v>10</v>
+      </c>
+      <c r="M5" s="17">
+        <v>10</v>
+      </c>
+      <c r="N5" s="12">
+        <v>10</v>
+      </c>
+      <c r="O5" s="17">
         <v>10</v>
       </c>
       <c r="P5" s="9">
@@ -981,7 +974,7 @@
       <c r="Q5" s="9">
         <v>10</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="17">
         <v>10</v>
       </c>
     </row>
@@ -994,15 +987,15 @@
         <f>IF(C4 &gt; 0, SUM(C4-C5),0)</f>
         <v>-1.25</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <f t="shared" ref="D6:R6" si="0">IF(D4 &gt; 0, SUM(D4-D5),0)</f>
         <v>-2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -1010,11 +1003,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1024,21 +1017,21 @@
       </c>
       <c r="K6" s="9">
         <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="21">
+      <c r="M6" s="17">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="N6" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="21">
+      <c r="O6" s="17">
         <f t="shared" ref="O6" si="1">IF(O4 &gt; 0, SUM(O4-O5),0)</f>
         <v>0</v>
       </c>
@@ -1050,7 +1043,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1061,35 +1054,33 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="12"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="22" t="s">
-        <v>29</v>
+      <c r="L7" s="12"/>
+      <c r="M7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="21" t="s">
-        <v>31</v>
+      <c r="R7" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="9">
         <v>180</v>
@@ -1097,20 +1088,20 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="9">
         <f>SUM(B4:R4)</f>
-        <v>91.75</v>
+        <v>104.75</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="9">
         <f>SUM(C6:R6)</f>
-        <v>11.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="22" spans="2:2">
